--- a/assets/temp/template.xlsx
+++ b/assets/temp/template.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
   <si>
     <t>No</t>
   </si>
@@ -26,13 +26,10 @@
     <t>Jam</t>
   </si>
   <si>
-    <t>Wind Direction</t>
+    <t>2024-04-27</t>
   </si>
   <si>
-    <t>2024-04-24</t>
-  </si>
-  <si>
-    <t>06:36:24</t>
+    <t>23:21:54</t>
   </si>
 </sst>
 </file>
@@ -371,7 +368,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -379,7 +376,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -389,22 +386,16 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
